--- a/Assets/Resources/Entities/Game_BattleEffects.xlsx
+++ b/Assets/Resources/Entities/Game_BattleEffects.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +38,9 @@
     <t>FireSword_InstantDamage</t>
   </si>
   <si>
+    <t>fc1189</t>
+  </si>
+  <si>
     <t>OnAttach</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t>FireSword_TickDamage</t>
   </si>
   <si>
+    <t>fc763</t>
+  </si>
+  <si>
     <t>OnRoundStart</t>
   </si>
   <si>
@@ -54,6 +60,9 @@
   </si>
   <si>
     <t>Backstub_InstantDamage</t>
+  </si>
+  <si>
+    <t>fc734</t>
   </si>
   <si>
     <t>Backstub_TickDamage</t>
@@ -72,6 +81,9 @@
   </si>
   <si>
     <t>Increase Defense</t>
+  </si>
+  <si>
+    <t>fc2151</t>
   </si>
   <si>
     <t>AbsoluteDefense</t>
@@ -417,9 +429,11 @@
         <v>7</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4">
@@ -448,15 +462,17 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3">
         <v>2.0</v>
@@ -487,15 +503,17 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4">
@@ -524,15 +542,17 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5">
@@ -561,15 +581,17 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5">
         <v>5.0</v>
@@ -29473,10 +29495,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -29500,24 +29522,26 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3">
         <v>2.0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
